--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t xml:space="preserve">Name on card </t>
   </si>
@@ -52,10 +52,10 @@
     <t>https://adyen-app.sonetel.com/</t>
   </si>
   <si>
-    <t>Quality_Testing@sonetel.info</t>
-  </si>
-  <si>
-    <t>sonetel123</t>
+    <t>Lead_Quality@sonetel.info</t>
+  </si>
+  <si>
+    <t>sonetel</t>
   </si>
   <si>
     <t>chrome</t>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CityName</t>
+  </si>
+  <si>
+    <t>Rosario</t>
   </si>
 </sst>
 </file>
@@ -87,11 +93,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -128,6 +134,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -143,62 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +226,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -229,14 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,13 +265,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,13 +291,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,67 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,91 +459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +496,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,20 +552,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,21 +589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -596,58 +602,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -656,88 +662,88 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,7 +763,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -766,7 +772,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1100,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1203,10 +1209,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Quality_Testing@sonetel.info" tooltip="mailto:Quality_Testing@sonetel.info"/>
-    <hyperlink ref="F2" r:id="rId2" display="sonetel123"/>
+    <hyperlink ref="E2" r:id="rId1" display="Lead_Quality@sonetel.info" tooltip="mailto:Lead_Quality@sonetel.info"/>
+    <hyperlink ref="F2" r:id="rId2" display="sonetel"/>
     <hyperlink ref="A7" r:id="rId3" display="sntl_b_1346057779_per@xpathy.org" tooltip="mailto:sntl_b_1346057779_per@xpathy.org"/>
     <hyperlink ref="D2" r:id="rId4" display="https://adyen-app.sonetel.com/"/>
   </hyperlinks>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve">Name on card </t>
   </si>
@@ -49,10 +49,10 @@
     <t>000</t>
   </si>
   <si>
-    <t>https://adyen-app.sonetel.com/</t>
-  </si>
-  <si>
-    <t>Lead_Quality@sonetel.info</t>
+    <t>https://staging-app.sonetel.com/</t>
+  </si>
+  <si>
+    <t>Sonetel_QA@sonetel.info</t>
   </si>
   <si>
     <t>sonetel</t>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Rosario</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
   </si>
 </sst>
 </file>
@@ -93,11 +99,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mmm/yy"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="mmm/yy"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -116,7 +122,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,20 +134,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.25"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -150,6 +157,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -157,15 +171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,9 +194,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,30 +254,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -250,21 +271,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,13 +297,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,169 +459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,8 +559,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +580,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -588,47 +603,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,112 +644,112 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -763,22 +769,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1106,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1219,12 +1225,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Lead_Quality@sonetel.info" tooltip="mailto:Lead_Quality@sonetel.info"/>
+    <hyperlink ref="E2" r:id="rId1" display="Sonetel_QA@sonetel.info" tooltip="mailto:Sonetel_QA@sonetel.info"/>
     <hyperlink ref="F2" r:id="rId2" display="sonetel"/>
     <hyperlink ref="A7" r:id="rId3" display="sntl_b_1346057779_per@xpathy.org" tooltip="mailto:sntl_b_1346057779_per@xpathy.org"/>
-    <hyperlink ref="D2" r:id="rId4" display="https://adyen-app.sonetel.com/"/>
+    <hyperlink ref="D2" r:id="rId4" display="https://staging-app.sonetel.com/" tooltip="https://staging-app.sonetel.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -52,7 +52,7 @@
     <t>https://staging-app.sonetel.com/</t>
   </si>
   <si>
-    <t>Sonetel_QA@sonetel.info</t>
+    <t>QA_Sonetel@sonetel.info</t>
   </si>
   <si>
     <t>sonetel</t>
@@ -99,11 +99,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -148,32 +148,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,39 +209,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,14 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -254,6 +231,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -261,9 +246,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,11 +508,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,8 +557,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,24 +595,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,148 +608,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -769,7 +769,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -778,7 +778,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1237,7 +1237,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Sonetel_QA@sonetel.info" tooltip="mailto:Sonetel_QA@sonetel.info"/>
+    <hyperlink ref="E2" r:id="rId1" display="QA_Sonetel@sonetel.info" tooltip="mailto:QA_Sonetel@sonetel.info"/>
     <hyperlink ref="F2" r:id="rId2" display="sonetel"/>
     <hyperlink ref="A7" r:id="rId3" display="sntl_b_1346057779_per@xpathy.org" tooltip="mailto:sntl_b_1346057779_per@xpathy.org"/>
     <hyperlink ref="D2" r:id="rId4" display="https://staging-app.sonetel.com/" tooltip="https://staging-app.sonetel.com/"/>
